--- a/example_data/Summary/during/Averages by Sample/Avg AUC Magnitude Change_during_.xlsx
+++ b/example_data/Summary/during/Averages by Sample/Avg AUC Magnitude Change_during_.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:V11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -498,40 +498,50 @@
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
+          <t>Animal ID_Event 8</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Event 8</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
           <t>Animal ID_Event 9</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Event 9</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Animal ID_Group 1</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Group 1</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Animal ID_Group 2</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>Group 2</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Animal ID_Group 3</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>Group 3</t>
         </is>
@@ -540,217 +550,709 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.117488748195044</v>
+        <v>-1.894792910778131</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>-1.168597457809909</v>
+        <v>-1.959350541552375</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.421996586592842</v>
+        <v>0.416388989257209</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>-0.1026793483665518</v>
+        <v>6.142194176308909</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J2" t="n">
-        <v>9.458024523801907</v>
+        <v>27.03311792820963</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>10</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>1.464063891551794</v>
+        <v>1.514942497908459</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>10</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>-0.8091347665958271</v>
+        <v>0.6362710394989399</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>10</t>
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1.464063891551794</v>
+        <v>3.958566689053381</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>10</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>1.464063891551794</v>
+        <v>3.071004302970115</v>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>10</t>
         </is>
       </c>
       <c r="T2" t="n">
-        <v>1.117488748195044</v>
+        <v>1.646117961842204</v>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="V2" t="n">
+        <v>-1.898763781670453</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>210</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.3049186363132979</v>
+        <v>-0.8713194825807644</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>23</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1.158300169726902</v>
+        <v>0.2151007101995841</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>210</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.237096686776434</v>
+        <v>9.750852782706122</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>210</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>-0.08329953896814146</v>
+        <v>2.402026636083065</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>210</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>-5.083018963056356</v>
+        <v>47.30322767203956</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>23</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>0.3943158718027462</v>
+        <v>3.90949917742134</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>210</t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>0.3943158718027462</v>
+        <v>2.235699433287509</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>210</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>0.3943158718027462</v>
+        <v>1.645155868810823</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>210</t>
         </is>
       </c>
       <c r="T3" t="n">
-        <v>-0.8895258846454936</v>
+        <v>5.391189624307373</v>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="V3" t="n">
+        <v>-0.8713194825807644</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>211</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2.287356349727471</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>382</t>
-        </is>
-      </c>
-      <c r="L4" t="n">
-        <v>-3.817284427117874</v>
+        <v>0.9304545291644395</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1418232307745146</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>-2.753936674579854</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>-0.1380174975157473</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="J4" t="n">
+        <v>6.403659557840665</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>211</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>-1.105615520168175</v>
+        <v>-0.948955532722227</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>211</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>0.2550925548528067</v>
+        <v>-0.7154402962168618</v>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>211</t>
         </is>
       </c>
       <c r="T4" t="n">
-        <v>1.351899928411589</v>
+        <v>-1.687219258881102</v>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="V4" t="n">
+        <v>0.9304545291644395</v>
       </c>
     </row>
     <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1.032142135746257</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>4.493283326497078</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>0.4959995308713214</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1.09980730158772</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J5" t="n">
+        <v>10.78176421273035</v>
+      </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>23</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>-0.3228134958820394</v>
+        <v>-0.29126823921656</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>23</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>2.237096686776434</v>
+        <v>0.6482650561365659</v>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="T5" t="n">
+        <v>0.1104235859975589</v>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="V5" t="n">
+        <v>0.6870720156272476</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1.921960203303568</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>-0.6530713764804528</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>0.1417365924641185</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1.313218755072359</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="J6" t="n">
+        <v>15.02587298430529</v>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="P6" t="n">
+        <v>-1.070561284637504</v>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="R6" t="n">
+        <v>0.09047436649051477</v>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="T6" t="n">
+        <v>-0.1874499650721102</v>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="V6" t="n">
+        <v>2.118160249022262</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>-0.2020770781896566</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>-0.2751270468811189</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>0.4433412017681597</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2.049215470538922</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J7" t="n">
+        <v>27.39073639055415</v>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="P7" t="n">
+        <v>-3.665709586704074</v>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="R7" t="n">
+        <v>0.4815744210805395</v>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="T7" t="n">
+        <v>0.4433412017681597</v>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="V7" t="n">
+        <v>0.4303352615522318</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-0.9270673597461236</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>-0.2659925781331633</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3.277318371632385</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="J8" t="n">
+        <v>23.11768826962274</v>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="P8" t="n">
+        <v>4.039958560851717</v>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="R8" t="n">
+        <v>-0.149793111756324</v>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="T8" t="n">
+        <v>-0.2659925781331633</v>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="V8" t="n">
+        <v>-0.7223153483948561</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.4266401866947618</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>-1.782219801482256</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>0.7165260383621312</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="J9" t="n">
+        <v>7.469913741055461</v>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="R9" t="n">
+        <v>-0.7096685936176534</v>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="T9" t="n">
+        <v>-2.145888856633932</v>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="V9" t="n">
+        <v>0.4266401866947618</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.2101342415651164</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>-0.3530405910582299</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5.089351950131274</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="J10" t="n">
+        <v>8.741114854072382</v>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="R10" t="n">
+        <v>3.311619830550866</v>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="T10" t="n">
+        <v>1.366841379081418</v>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="V10" t="n">
+        <v>0.2101342415651164</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-0.8944998819902317</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>3.127923391501307</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4.761141313079996</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="J11" t="n">
+        <v>8.946748224212143</v>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="R11" t="n">
+        <v>3.490879686617481</v>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="T11" t="n">
+        <v>3.127923391501307</v>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="V11" t="n">
+        <v>-0.6528378927738139</v>
       </c>
     </row>
   </sheetData>
@@ -764,7 +1266,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:V11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -835,40 +1337,50 @@
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
+          <t>Animal ID_Event 8</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Event 8</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
           <t>Animal ID_Event 9</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Event 9</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Animal ID_Group 1</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Group 1</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Animal ID_Group 2</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>Group 2</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Animal ID_Group 3</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>Group 3</t>
         </is>
@@ -877,217 +1389,709 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.117488748195044</v>
+        <v>-1.894792910778131</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>-1.168597457809909</v>
+        <v>-1.959350541552377</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.421996586592844</v>
+        <v>0.416388989257209</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>-0.10267934836655</v>
+        <v>6.142194176308905</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J2" t="n">
-        <v>9.458024523801914</v>
+        <v>27.03311792820963</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>10</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>1.464063891551788</v>
+        <v>1.514942497908459</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>10</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>-0.8091347665958271</v>
+        <v>0.6362710394989382</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>10</t>
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1.464063891551788</v>
+        <v>3.958566689053375</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>10</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>1.464063891551788</v>
+        <v>3.071004302970112</v>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>10</t>
         </is>
       </c>
       <c r="T2" t="n">
-        <v>1.117488748195044</v>
+        <v>1.646117961842206</v>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="V2" t="n">
+        <v>-1.898763781670453</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>210</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.3049186363132979</v>
+        <v>-0.8713194825807662</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>23</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1.158300169726902</v>
+        <v>0.2151007101995841</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>210</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.237096686776434</v>
+        <v>9.750852782706119</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>210</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>-0.08329953896814324</v>
+        <v>2.402026636083065</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>210</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>-5.083018963056356</v>
+        <v>47.30322767203957</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>23</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>0.394315871802748</v>
+        <v>3.909499177421344</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>210</t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>0.394315871802748</v>
+        <v>2.235699433287509</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>210</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>0.394315871802748</v>
+        <v>1.645155868810825</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>210</t>
         </is>
       </c>
       <c r="T3" t="n">
-        <v>-0.8895258846454919</v>
+        <v>5.391189624307374</v>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="V3" t="n">
+        <v>-0.8713194825807662</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>211</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2.287356349727471</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>382</t>
-        </is>
-      </c>
-      <c r="L4" t="n">
-        <v>-3.817284427117874</v>
+        <v>0.9304545291644395</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1418232307745111</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>-2.753936674579851</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>-0.1380174975157473</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="J4" t="n">
+        <v>6.403659557840662</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>211</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>-1.105615520168174</v>
+        <v>-0.9489555327222305</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>211</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>0.2550925548528049</v>
+        <v>-0.71544029621686</v>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>211</t>
         </is>
       </c>
       <c r="T4" t="n">
-        <v>1.351899928411592</v>
+        <v>-1.687219258881106</v>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="V4" t="n">
+        <v>0.9304545291644395</v>
       </c>
     </row>
     <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1.032142135746261</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>4.493283326497078</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>0.495999530871325</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1.09980730158772</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J5" t="n">
+        <v>10.78176421273036</v>
+      </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>23</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>-0.3228134958820412</v>
+        <v>-0.29126823921656</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>23</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>2.237096686776434</v>
+        <v>0.6482650561365659</v>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="T5" t="n">
+        <v>0.1104235859975589</v>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="V5" t="n">
+        <v>0.6870720156272512</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1.921960203303568</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>-0.653071376480451</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>0.1417365924641167</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1.313218755072356</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="J6" t="n">
+        <v>15.02587298430529</v>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="P6" t="n">
+        <v>-1.070561284637503</v>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="R6" t="n">
+        <v>0.09047436649051654</v>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="T6" t="n">
+        <v>-0.1874499650721067</v>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="V6" t="n">
+        <v>2.118160249022262</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>-0.2020770781896566</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>-0.2751270468811189</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>0.4433412017681579</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2.049215470538924</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J7" t="n">
+        <v>27.39073639055414</v>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="P7" t="n">
+        <v>-3.665709586704073</v>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="R7" t="n">
+        <v>0.4815744210805377</v>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="T7" t="n">
+        <v>0.4433412017681579</v>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="V7" t="n">
+        <v>0.4303352615522336</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-0.9270673597461236</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>-0.2659925781331616</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3.277318371632386</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="J8" t="n">
+        <v>23.11768826962273</v>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="P8" t="n">
+        <v>4.039958560851717</v>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="R8" t="n">
+        <v>-0.149793111756324</v>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="T8" t="n">
+        <v>-0.2659925781331616</v>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="V8" t="n">
+        <v>-0.7223153483948597</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.4266401866947636</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>-1.782219801482256</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>0.7165260383621295</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="J9" t="n">
+        <v>7.469913741055461</v>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="R9" t="n">
+        <v>-0.7096685936176534</v>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="T9" t="n">
+        <v>-2.145888856633934</v>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="V9" t="n">
+        <v>0.4266401866947636</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.2101342415651182</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>-0.3530405910582282</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5.089351950131277</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="J10" t="n">
+        <v>8.741114854072382</v>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="R10" t="n">
+        <v>3.311619830550869</v>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="T10" t="n">
+        <v>1.366841379081418</v>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="V10" t="n">
+        <v>0.2101342415651182</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-0.8944998819902317</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>3.127923391501309</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4.761141313079996</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="J11" t="n">
+        <v>8.946748224212147</v>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="R11" t="n">
+        <v>3.490879686617484</v>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="T11" t="n">
+        <v>3.127923391501309</v>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="V11" t="n">
+        <v>-0.6528378927738157</v>
       </c>
     </row>
   </sheetData>
@@ -1101,7 +2105,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:V11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1172,40 +2176,50 @@
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
+          <t>Animal ID_Event 8</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Event 8</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
           <t>Animal ID_Event 9</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Event 9</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Animal ID_Group 1</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Group 1</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Animal ID_Group 2</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>Group 2</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Animal ID_Group 3</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>Group 3</t>
         </is>
@@ -1214,246 +2228,758 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>23.75833582262884</v>
+        <v>-3.91703693461166</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>7.469017227597242</v>
+        <v>-7.656546277045138</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>5.091476911147138</v>
+        <v>1.467737583367624</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>-0.4471297053277805</v>
+        <v>56.38405493526083</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J2" t="n">
-        <v>77.39808410422521</v>
+        <v>48.2049497960276</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>10</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>4.644272762088507</v>
+        <v>6.464762131069865</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>10</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>-1.458235796670413</v>
+        <v>1.929230716999633</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>10</t>
         </is>
       </c>
       <c r="P2" t="n">
-        <v>4.644272762088507</v>
+        <v>83.90819153739008</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>10</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>4.644272762088507</v>
+        <v>31.90550889766373</v>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>10</t>
         </is>
       </c>
       <c r="T2" t="n">
-        <v>23.75833582262884</v>
+        <v>8.901475368184908</v>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="V2" t="n">
+        <v>-4.220462098771338</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>210</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.443112701113414</v>
+        <v>-7.531262089020935</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>23</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>-2.15144564109923</v>
+        <v>29.66917003638584</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>210</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>56.84731501619882</v>
+        <v>77.16263771908424</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>210</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>-4.456372423493019</v>
+        <v>14.40267253302047</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>210</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>-4.343547356697655</v>
+        <v>51.8314845423218</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>23</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>35.59293460431685</v>
+        <v>-4.634902980539882</v>
       </c>
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>210</t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>35.59293460431685</v>
+        <v>7.116430613741066</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>210</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>35.59293460431685</v>
+        <v>7.535942974064792</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>210</t>
         </is>
       </c>
       <c r="T3" t="n">
-        <v>5.107024159857797</v>
+        <v>35.35951492890138</v>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="V3" t="n">
+        <v>-7.531262089020935</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>211</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>58.61373982132663</v>
-      </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>382</t>
-        </is>
-      </c>
-      <c r="L4" t="n">
-        <v>-5.742089964111487</v>
-      </c>
+        <v>8.809412236223086</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.5934555384309892</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>-1.917971754153259</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>-5.085584502234363</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="J4" t="n">
+        <v>1.576536526446782</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>211</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>-3.517680148987682</v>
+        <v>-9.225159622270668</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>211</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>0.5182847076839003</v>
+        <v>-8.356351767008471</v>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>211</t>
         </is>
       </c>
       <c r="T4" t="n">
-        <v>3.00816450302</v>
+        <v>-6.492183128596299</v>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="V4" t="n">
+        <v>8.809412236223086</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr"/>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>-4.921815126112739</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.1447693866751774</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>2.138361119547572</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>13.67654457305128</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J5" t="n">
+        <v>29.02971735512028</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>23</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>-3.785057991921991</v>
+        <v>-2.752993767196318</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>23</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>56.84731501619882</v>
-      </c>
-      <c r="S5" t="inlineStr"/>
-      <c r="T5" t="inlineStr"/>
+        <v>3.449338974078175</v>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="T5" t="n">
+        <v>0.4378144211496906</v>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="V5" t="n">
+        <v>-5.818821260333525</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>328.3696114547782</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>11.69970209535128</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>1.460458992382611</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7.196352977482817</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="J6" t="n">
+        <v>136.1313633509132</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="P6" t="n">
+        <v>-3.772406619179853</v>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="R6" t="n">
+        <v>0.5550607327309436</v>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="T6" t="n">
+        <v>-1.178844016828375</v>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="V6" t="n">
+        <v>271.1348881226752</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>-4.197709597345003</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>-1.554114560470369</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>3.280385991739275</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>18.77420948144091</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J7" t="n">
+        <v>140.7718627642311</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="P7" t="n">
+        <v>38.28616394848882</v>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="R7" t="n">
+        <v>3.572170836658948</v>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="T7" t="n">
+        <v>3.280385991739275</v>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="V7" t="n">
+        <v>37.05421749474105</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>22.79273602140801</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>-0.6598909812087435</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>14.27154963220035</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="J8" t="n">
+        <v>4757.880753902283</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="P8" t="n">
+        <v>-6.375154074398371</v>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="R8" t="n">
+        <v>-0.3881902427370267</v>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="T8" t="n">
+        <v>-0.6598909812087435</v>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="V8" t="n">
+        <v>13.89284717447961</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>2.001426805807991</v>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>44.711256018082</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2.152624192034269</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="J9" t="n">
+        <v>19.54915956832332</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr"/>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="R9" t="n">
+        <v>-3.752820987479688</v>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="T9" t="n">
+        <v>37.41084636938869</v>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="V9" t="n">
+        <v>2.001426805807991</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1.250755550810968</v>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>-7.971273678157019</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>827.1874748427363</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="J10" t="n">
+        <v>58.57414693221915</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="inlineStr"/>
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="R10" t="n">
+        <v>88.17399840257208</v>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="T10" t="n">
+        <v>14.17617285722557</v>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="V10" t="n">
+        <v>1.250755550810968</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>50.23568588035768</v>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>28.36160249381876</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>230.2852034947218</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="J11" t="n">
+        <v>161.7029423632867</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr"/>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="R11" t="n">
+        <v>68.80269918190062</v>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="T11" t="n">
+        <v>28.36160249381876</v>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="V11" t="n">
+        <v>-8.496147789092749</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
